--- a/Elantra_Market/Elantra.xlsx
+++ b/Elantra_Market/Elantra.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rathsf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rathsf/Code/Personal/Elantra_Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623556DC-752B-7644-8498-FD0EFA864507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89950DC5-3338-DF43-8C35-B82D3B645956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36680" yWindow="1280" windowWidth="30740" windowHeight="21240" activeTab="2" xr2:uid="{95B4D1F3-E941-9E40-8A83-5EBAB7AC405A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{95B4D1F3-E941-9E40-8A83-5EBAB7AC405A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Autolist" sheetId="3" r:id="rId1"/>
+    <sheet name="OfferUp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="169">
   <si>
     <t>Hyundai</t>
   </si>
@@ -271,9 +270,6 @@
     <t>Laurel, MD</t>
   </si>
   <si>
-    <t>New Listing</t>
-  </si>
-  <si>
     <t>FRESH</t>
   </si>
   <si>
@@ -322,21 +318,6 @@
     <t>est. $222/mo</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Miles</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>on_market</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>20,620 Miles</t>
   </si>
   <si>
@@ -478,9 +459,6 @@
     <t>2018 Hyundai Elantra GT</t>
   </si>
   <si>
-    <t>Call for details</t>
-  </si>
-  <si>
     <t>89k miles</t>
   </si>
   <si>
@@ -563,6 +541,9 @@
   </si>
   <si>
     <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>96k miles</t>
   </si>
 </sst>
 </file>
@@ -938,2136 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F12D9-69D1-584A-BEB3-80F1B8BC9FCA}">
-  <dimension ref="A1:B496"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="2">
-        <v>18465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="2">
-        <v>17998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="2">
-        <v>16998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="2">
-        <v>9998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B98">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="2">
-        <v>16699</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B113">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="2">
-        <v>22881</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>94</v>
-      </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="2">
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>94</v>
-      </c>
-      <c r="B137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>95</v>
-      </c>
-      <c r="B138" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>96</v>
-      </c>
-      <c r="B139" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B146">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="2">
-        <v>16998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>94</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>95</v>
-      </c>
-      <c r="B156" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B162">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="2">
-        <v>16398</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>94</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>95</v>
-      </c>
-      <c r="B172" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>96</v>
-      </c>
-      <c r="B173" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B178">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="2">
-        <v>16657</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>94</v>
-      </c>
-      <c r="B187" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>95</v>
-      </c>
-      <c r="B188" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>96</v>
-      </c>
-      <c r="B189" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B194">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="2">
-        <v>13387</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>94</v>
-      </c>
-      <c r="B203" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>95</v>
-      </c>
-      <c r="B204" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>96</v>
-      </c>
-      <c r="B205" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B210">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="2">
-        <v>12995</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>94</v>
-      </c>
-      <c r="B219" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>95</v>
-      </c>
-      <c r="B220" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>96</v>
-      </c>
-      <c r="B221" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B226">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="2">
-        <v>14995</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B230" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>94</v>
-      </c>
-      <c r="B235" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>95</v>
-      </c>
-      <c r="B236" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>96</v>
-      </c>
-      <c r="B237" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B242" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B244">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B245" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="2">
-        <v>17998</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B249" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B252" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>94</v>
-      </c>
-      <c r="B253" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>95</v>
-      </c>
-      <c r="B254" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>96</v>
-      </c>
-      <c r="B255" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B257" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B260" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B262">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="2">
-        <v>18998</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>94</v>
-      </c>
-      <c r="B271" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>95</v>
-      </c>
-      <c r="B272" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>96</v>
-      </c>
-      <c r="B273" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B275" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B280">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B282" s="2">
-        <v>13998</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B284" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B285" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B287" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B288" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>94</v>
-      </c>
-      <c r="B289" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>95</v>
-      </c>
-      <c r="B290" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>96</v>
-      </c>
-      <c r="B291" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B293" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B296" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B298">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B299" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="2">
-        <v>15998</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B302" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B303" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B305" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B306" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>94</v>
-      </c>
-      <c r="B307" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>95</v>
-      </c>
-      <c r="B308" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>96</v>
-      </c>
-      <c r="B309" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B311" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B313" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B314" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B316">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B317" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B318" s="2">
-        <v>16998</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B320" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B321" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B323" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B324" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>94</v>
-      </c>
-      <c r="B325" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>95</v>
-      </c>
-      <c r="B326" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>96</v>
-      </c>
-      <c r="B327" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B329" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B331" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B332" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B334">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B335" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B336" s="2">
-        <v>20998</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B338" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B339" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B340" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B343" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B344" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>94</v>
-      </c>
-      <c r="B345" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>95</v>
-      </c>
-      <c r="B346" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>96</v>
-      </c>
-      <c r="B347" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B349" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B351" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B353">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B354" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B355" s="2">
-        <v>17998</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B357" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B358" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B360" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B361" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>94</v>
-      </c>
-      <c r="B362" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>95</v>
-      </c>
-      <c r="B363" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>96</v>
-      </c>
-      <c r="B364" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B366" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B368" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B369" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B371">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B372" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B373" s="2">
-        <v>18998</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B375" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B376" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B378" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B379" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>94</v>
-      </c>
-      <c r="B380" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>95</v>
-      </c>
-      <c r="B381" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>96</v>
-      </c>
-      <c r="B382" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B384" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B386" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B387" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B389" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B390" s="2">
-        <v>19998</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B392" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B393" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B394" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B396" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B397" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>94</v>
-      </c>
-      <c r="B398" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>95</v>
-      </c>
-      <c r="B399" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>96</v>
-      </c>
-      <c r="B400" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B402" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B404" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B405" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B407">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B408" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B409" s="2">
-        <v>14998</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B411" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B412" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B414" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B415" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>94</v>
-      </c>
-      <c r="B416" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>95</v>
-      </c>
-      <c r="B417" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>96</v>
-      </c>
-      <c r="B418" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B420" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B421" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B423">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B424" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B425" s="2">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B427" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B428" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B430" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B431" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>94</v>
-      </c>
-      <c r="B432" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>95</v>
-      </c>
-      <c r="B433" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>96</v>
-      </c>
-      <c r="B434" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B436" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B438" s="1">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B439" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B441">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B442" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B443" s="2">
-        <v>17998</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B445" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B446" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B448" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B449" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>94</v>
-      </c>
-      <c r="B450" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>95</v>
-      </c>
-      <c r="B451" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>96</v>
-      </c>
-      <c r="B452" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B454" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B456" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B457" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B459">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B460" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B461" s="2">
-        <v>16998</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B463" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B464" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B466" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B467" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>94</v>
-      </c>
-      <c r="B468" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>95</v>
-      </c>
-      <c r="B469" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>96</v>
-      </c>
-      <c r="B470" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B472" s="1">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B473" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B475">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B476" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B477" s="2">
-        <v>11395</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B479" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B480" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B482" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B483" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>94</v>
-      </c>
-      <c r="B484" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
-        <v>95</v>
-      </c>
-      <c r="B485" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>96</v>
-      </c>
-      <c r="B486" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B488" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B489" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B491">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B492" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B493" s="2">
-        <v>15399</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B495" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B496" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532319B-075A-DE4B-ACF1-EBC097634DDC}">
   <dimension ref="B1:B766"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="K257" sqref="K257"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3094,12 +950,12 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
@@ -3129,7 +985,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
@@ -3289,12 +1145,12 @@
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
@@ -3319,7 +1175,7 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
@@ -3464,12 +1320,12 @@
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
@@ -3499,7 +1355,7 @@
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
@@ -3529,12 +1385,12 @@
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
@@ -3589,12 +1445,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
@@ -3654,12 +1510,12 @@
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
@@ -3843,7 +1699,7 @@
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
@@ -3881,7 +1737,7 @@
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
@@ -3906,12 +1762,12 @@
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
@@ -3944,7 +1800,7 @@
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
@@ -4075,7 +1931,7 @@
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
@@ -4085,12 +1941,12 @@
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
@@ -4185,12 +2041,12 @@
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
@@ -4310,12 +2166,12 @@
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
@@ -4345,7 +2201,7 @@
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
@@ -4370,12 +2226,12 @@
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
@@ -4493,12 +2349,12 @@
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.2">
@@ -4692,12 +2548,12 @@
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.2">
@@ -4821,12 +2677,12 @@
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B472" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.2">
@@ -4856,7 +2712,7 @@
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.2">
@@ -4944,12 +2800,12 @@
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B503" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.2">
@@ -5080,12 +2936,12 @@
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.2">
@@ -5115,7 +2971,7 @@
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.2">
@@ -5140,12 +2996,12 @@
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.2">
@@ -5175,7 +3031,7 @@
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.2">
@@ -5323,12 +3179,12 @@
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B603" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B604" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.2">
@@ -5358,7 +3214,7 @@
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B613" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.2">
@@ -5388,12 +3244,12 @@
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B620" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B621" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.2">
@@ -5508,12 +3364,12 @@
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B652" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B653" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.2">
@@ -5543,7 +3399,7 @@
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B662" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.2">
@@ -5568,12 +3424,12 @@
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B668" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B669" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.2">
@@ -5886,12 +3742,12 @@
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B756" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B757" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.2">
@@ -5929,24 +3785,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B332115F-E549-2545-9B87-A39BFF4C4235}">
-  <dimension ref="B3:B314"/>
+  <dimension ref="B1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
@@ -5956,7 +3817,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
@@ -5966,12 +3827,12 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
@@ -5981,7 +3842,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
@@ -5991,12 +3852,12 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
@@ -6006,7 +3867,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
@@ -6016,12 +3877,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
@@ -6031,22 +3892,22 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
@@ -6056,7 +3917,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
@@ -6066,12 +3927,12 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
@@ -6081,47 +3942,47 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>146</v>
+      <c r="B60" s="2">
+        <v>11395</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
@@ -6131,7 +3992,7 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
@@ -6141,12 +4002,12 @@
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
@@ -6156,7 +4017,7 @@
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
@@ -6166,12 +4027,12 @@
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
@@ -6181,22 +4042,22 @@
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
@@ -6206,7 +4067,7 @@
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
@@ -6216,12 +4077,12 @@
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
@@ -6229,104 +4090,107 @@
         <v>10650</v>
       </c>
     </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+    </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>51</v>
+      <c r="B107" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>136</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="2">
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2">
         <v>16699</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>136</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="2">
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="2">
         <v>12000</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="2">
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="2">
         <v>12708</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="2">
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="2">
         <v>21500</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
@@ -6336,477 +4200,482 @@
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="2">
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="2">
+      <c r="B157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="2">
         <v>17500</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>139</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="2">
+      <c r="B166" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="2">
+      <c r="B175" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="2">
+      <c r="B184" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="2">
+      <c r="B193" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>142</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="2">
+      <c r="B202" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="2">
         <v>20000</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
-        <v>139</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="2">
+      <c r="B211" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="2">
+      <c r="B220" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="2">
+      <c r="B229" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="2">
+      <c r="B238" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="2">
+      <c r="B247" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" s="2">
+      <c r="B256" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="2">
+      <c r="B265" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="2">
         <v>14980</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="2">
+      <c r="B274" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" s="2">
         <v>9000</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B283" s="2">
+      <c r="B283" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" s="2">
         <v>8750</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B285" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
-        <v>145</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="2">
+      <c r="B292" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" s="2">
         <v>14500</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="2">
+      <c r="B301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303" s="2">
         <v>18000</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B308" t="s">
-        <v>161</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B310" s="2">
+      <c r="B310" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312" s="2">
         <v>17500</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B312" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
